--- a/project files/SIPOC.xlsx
+++ b/project files/SIPOC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/John/Documents/3_FHNW/MSc/Semester_5/DigitalizationBP/Assessment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahel/Documents/GitHub/digibp-grindelwald/project files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6B09E6AA-0425-5547-988B-E4EA0CC2B3D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27223A19-21AB-E049-8155-1915717EA8C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800"/>
+    <workbookView xWindow="3640" yWindow="460" windowWidth="20700" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Define-SIPOC" sheetId="4" r:id="rId1"/>
@@ -26,11 +26,11 @@
     <definedName name="choice2">'[1]A-Kernursachen Zusammenfassung'!$AA$2:$AA$4</definedName>
     <definedName name="choice3">'[1]I-TOOL IV (Ursache-Lösung)'!$O$11:$O$15</definedName>
     <definedName name="detectionprob">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Define-SIPOC'!$A$2:$L$13</definedName>
     <definedName name="frequency">#REF!</definedName>
     <definedName name="gagerr">#REF!</definedName>
     <definedName name="ontrack">#REF!</definedName>
     <definedName name="phase">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Define-SIPOC'!$A$2:$L$13</definedName>
     <definedName name="raci">#REF!</definedName>
     <definedName name="rating">'[1]M-Tool II'!$S$3:$S$6</definedName>
     <definedName name="scale">#REF!</definedName>
@@ -39,14 +39,6 @@
     <definedName name="support">'[1]D-Stakeholderanalyse'!$Z$4:$Z$8</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -127,9 +119,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -215,19 +207,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor rgb="FFFFF098"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +276,7 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -374,51 +366,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Euro" xfId="1"/>
-    <cellStyle name="Hyperlink 2" xfId="2"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="3"/>
-    <cellStyle name="Standard 2 2" xfId="4"/>
-    <cellStyle name="Standard 3" xfId="5"/>
-    <cellStyle name="Standard 4" xfId="6"/>
+    <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Standard 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Standard 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Standard 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -583,6 +574,13 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFF098"/>
+      <color rgb="FFFFEF7A"/>
+      <color rgb="FFDCA700"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -763,7 +761,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1082,7 +1080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC0C0C0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1090,7 +1088,7 @@
   <dimension ref="A1:AR16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1116,18 +1114,18 @@
     </row>
     <row r="2" spans="1:44" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="23"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
@@ -1190,10 +1188,10 @@
         <v>2</v>
       </c>
       <c r="G4" s="19"/>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="35"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="18"/>
       <c r="K4" s="33" t="s">
         <v>0</v>
@@ -1280,24 +1278,24 @@
     </row>
     <row r="6" spans="1:44" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="35" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="34"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="35" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="4"/>
@@ -1350,24 +1348,24 @@
     </row>
     <row r="8" spans="1:44" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="35" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="35" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="35" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="4"/>
@@ -1388,24 +1386,24 @@
     </row>
     <row r="10" spans="1:44" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="35" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="35" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="41"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="37" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="4"/>
@@ -1458,24 +1456,24 @@
     </row>
     <row r="12" spans="1:44" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="35" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="35" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="38" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="40"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="37" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="4"/>
@@ -1484,14 +1482,14 @@
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="37"/>
+      <c r="K13" s="31"/>
       <c r="L13" s="10"/>
       <c r="M13" s="28"/>
       <c r="N13" s="28"/>
@@ -1541,12 +1539,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="6">
+    <mergeCell ref="B2:K2"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="D8 F8 H8:I8 K8">
     <cfRule type="cellIs" dxfId="9" priority="19" stopIfTrue="1" operator="notEqual">
@@ -1608,7 +1606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1620,7 +1618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1632,7 +1630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
